--- a/biology/Médecine/Nicolas_Basile_Bailly/Nicolas_Basile_Bailly.xlsx
+++ b/biology/Médecine/Nicolas_Basile_Bailly/Nicolas_Basile_Bailly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Basile Bailly, né à Darney le 11 juillet 1817 et mort à Bains-les-Bains le 21 juillet 1907, est un docteur en médecine, inspecteur des Eaux, maire de Bains-les-Bains et conseiller général des Vosges.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Basile Bailly est le fils du docteur Pierre Basile Bailly, qui fut chirurgien en chef des armées d'Espagne[1] avant d'être nommé médecin inspecteur des eaux de Bains en 1812 à son retour de la campagne d'Espagne, et de Marie-Anne-Julie Galland.  Il est également le petit-fils du chirurgien Nicolas Basile Bailly[2] (1737-1802), dont il porte les prénoms.
-Comme son père il sera médecin, il soutient une thèse de doctorat qui a pour titre : De l'action thérapeutique des eaux thermales simples. Il sera lauréat de l'Académie de médecine dont il reçoit une médaille d'or. En 1844, il prendra la suite de son père comme médecin inspecteur des eaux minérales de Bains[3] où il achète la maison d'un des précédents maires, le baron Pierre Louis Girard.
-Il est maire de Bains de 1878 à 1907 et élu au conseil général de 1883 à 1901, il est également le président de l'association des médecins des Vosges et membre du conseil départemental de l'Enseignement primaire. Le docteur Bailly sera fait chevalier de la Légion d'honneur en 1884[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Basile Bailly est le fils du docteur Pierre Basile Bailly, qui fut chirurgien en chef des armées d'Espagne avant d'être nommé médecin inspecteur des eaux de Bains en 1812 à son retour de la campagne d'Espagne, et de Marie-Anne-Julie Galland.  Il est également le petit-fils du chirurgien Nicolas Basile Bailly (1737-1802), dont il porte les prénoms.
+Comme son père il sera médecin, il soutient une thèse de doctorat qui a pour titre : De l'action thérapeutique des eaux thermales simples. Il sera lauréat de l'Académie de médecine dont il reçoit une médaille d'or. En 1844, il prendra la suite de son père comme médecin inspecteur des eaux minérales de Bains où il achète la maison d'un des précédents maires, le baron Pierre Louis Girard.
+Il est maire de Bains de 1878 à 1907 et élu au conseil général de 1883 à 1901, il est également le président de l'association des médecins des Vosges et membre du conseil départemental de l'Enseignement primaire. Le docteur Bailly sera fait chevalier de la Légion d'honneur en 1884.
 Il publie plusieurs ouvrages scientifiques ainsi que des monographies sur des sujets locaux.
 Il avait épousé à Bulgnéville le 25 septembre 1848 Marie-Clémentine Morlot, dont il eut 3 enfants.
 Il est enterré au cimetière de Bains-les-Bains, sa tombe porte sur le socle une poétique inscription inspirée des vers du poète Nicolas Gilbert, natif du bourg voisin de Fontenoy-le-Château : 
@@ -548,12 +562,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De l'avenir des établissements d'eaux minérales dans les Vosges, Plombières, Contrexéville et Vittel, Bains et Bussang. [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De l'avenir des établissements d'eaux minérales dans les Vosges, Plombières, Contrexéville et Vittel, Bains et Bussang. 
 L'hydrothérapie à Gérardmer et la cure de petit-lait sur les chaumes, éd. A. Cabasse , Épinal, 1862.
-Des eaux thermales de Bains-en-Vosges et de leur usage dans les maladies chroniques, éd. Masson, Paris, 1852. [2]
-L'Esprit scientifique et la solidarité médicale, allocution prononcée à la séance annuelle de l'Association des médecins des Vosges, éd. de Busy , Epinal, 1877. [3]
+Des eaux thermales de Bains-en-Vosges et de leur usage dans les maladies chroniques, éd. Masson, Paris, 1852. 
+L'Esprit scientifique et la solidarité médicale, allocution prononcée à la séance annuelle de l'Association des médecins des Vosges, éd. de Busy , Epinal, 1877. 
 De la salubrité dans les villages, éd. Fricotel, Épinal, 1865.
 Une excursion à Grand, éd. E. Busy , Épinal, 1884.
 Le Département des Vosges : géographie physique, en 7 volumes, éd. E. Busy , Épinal, 1887-1889.
@@ -585,7 +601,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une avenue de Bains-les-Bains porte son nom.
 </t>
